--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H2">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J2">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N2">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q2">
-        <v>1.319382672125333</v>
+        <v>1.566766207199</v>
       </c>
       <c r="R2">
-        <v>11.874444049128</v>
+        <v>14.100895864791</v>
       </c>
       <c r="S2">
-        <v>0.008026354742145116</v>
+        <v>0.0180651584362809</v>
       </c>
       <c r="T2">
-        <v>0.008026354742145116</v>
+        <v>0.0180651584362809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H3">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J3">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.432105</v>
       </c>
       <c r="O3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q3">
-        <v>10.78607893448444</v>
+        <v>3.695322112015</v>
       </c>
       <c r="R3">
-        <v>97.07471041035998</v>
+        <v>33.257899008135</v>
       </c>
       <c r="S3">
-        <v>0.06561621403250235</v>
+        <v>0.04260787545704587</v>
       </c>
       <c r="T3">
-        <v>0.06561621403250235</v>
+        <v>0.04260787545704588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.59487733333333</v>
+        <v>7.741029</v>
       </c>
       <c r="H4">
-        <v>67.78463199999999</v>
+        <v>23.223087</v>
       </c>
       <c r="I4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="J4">
-        <v>0.7395019553569895</v>
+        <v>0.4930486933812723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>14.532697</v>
       </c>
       <c r="O4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q4">
-        <v>109.4548353458338</v>
+        <v>37.499342975071</v>
       </c>
       <c r="R4">
-        <v>985.0935181125037</v>
+        <v>337.4940867756389</v>
       </c>
       <c r="S4">
-        <v>0.665859386582342</v>
+        <v>0.4323756594879455</v>
       </c>
       <c r="T4">
-        <v>0.665859386582342</v>
+        <v>0.4323756594879455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J5">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N5">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q5">
-        <v>0.01778642994266667</v>
+        <v>0.06165005940311112</v>
       </c>
       <c r="R5">
-        <v>0.160077869484</v>
+        <v>0.5548505346280002</v>
       </c>
       <c r="S5">
-        <v>0.0001082022671149596</v>
+        <v>0.0007108387234840805</v>
       </c>
       <c r="T5">
-        <v>0.0001082022671149596</v>
+        <v>0.0007108387234840805</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J6">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.432105</v>
       </c>
       <c r="O6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q6">
         <v>0.1454057578422222</v>
@@ -818,10 +818,10 @@
         <v>1.30865182058</v>
       </c>
       <c r="S6">
-        <v>0.0008845638332600897</v>
+        <v>0.001676560319528006</v>
       </c>
       <c r="T6">
-        <v>0.0008845638332600897</v>
+        <v>0.001676560319528007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="J7">
-        <v>0.009969131776025512</v>
+        <v>0.0194007766416684</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>14.532697</v>
       </c>
       <c r="O7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q7">
         <v>1.475546709756889</v>
@@ -880,10 +880,10 @@
         <v>13.279920387812</v>
       </c>
       <c r="S7">
-        <v>0.008976365675650463</v>
+        <v>0.01701337759865632</v>
       </c>
       <c r="T7">
-        <v>0.008976365675650463</v>
+        <v>0.01701337759865632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H8">
         <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J8">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N8">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O8">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P8">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q8">
-        <v>0.446981247458</v>
+        <v>1.549294633419334</v>
       </c>
       <c r="R8">
-        <v>4.022831227121999</v>
+        <v>13.943651700774</v>
       </c>
       <c r="S8">
-        <v>0.002719173239864754</v>
+        <v>0.01786370735378334</v>
       </c>
       <c r="T8">
-        <v>0.002719173239864754</v>
+        <v>0.01786370735378334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H9">
         <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J9">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.432105</v>
       </c>
       <c r="O9">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P9">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q9">
         <v>3.654114245376667</v>
       </c>
       <c r="R9">
-        <v>32.88702820839</v>
+        <v>32.88702820839001</v>
       </c>
       <c r="S9">
-        <v>0.02222950006950897</v>
+        <v>0.0421327397053159</v>
       </c>
       <c r="T9">
-        <v>0.02222950006950897</v>
+        <v>0.04213273970531591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.654706</v>
+        <v>7.654706000000001</v>
       </c>
       <c r="H10">
         <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="J10">
-        <v>0.250528912866985</v>
+        <v>0.4875505299770593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>14.532697</v>
       </c>
       <c r="O10">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P10">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q10">
         <v>37.08117430736067</v>
       </c>
       <c r="R10">
-        <v>333.7305687662459</v>
+        <v>333.730568766246</v>
       </c>
       <c r="S10">
-        <v>0.2255802395576113</v>
+        <v>0.4275540829179602</v>
       </c>
       <c r="T10">
-        <v>0.2255802395576113</v>
+        <v>0.4275540829179602</v>
       </c>
     </row>
   </sheetData>
